--- a/Normalisering/Normalisering.xlsx
+++ b/Normalisering/Normalisering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lea\Desktop\Skole\Database\Eksamen\Normalisering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECAB9A13-3CAC-45BE-BE29-CC06EAC2D5A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EA980687-5FF9-4D16-9F76-C8FFBADC7D26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{BEACBFE9-C382-49CC-8E49-70DBF5F7090F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
   <si>
     <t>BrukerNavn</t>
   </si>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1AB935-C2D4-479E-8D7D-8ECE67CB7852}">
   <dimension ref="A1:T126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,8 +1287,12 @@
       <c r="A84" s="26">
         <v>5</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="20"/>
+      <c r="B84" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -1615,8 +1619,12 @@
       <c r="A121" s="26">
         <v>5</v>
       </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="20"/>
+      <c r="B121" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="20">
+        <v>6</v>
+      </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -1645,9 +1653,11 @@
     </row>
     <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="26">
-        <v>5</v>
-      </c>
-      <c r="B126" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
     </row>
